--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1832.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1832.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.457561153671141</v>
+        <v>0.3316315710544586</v>
       </c>
       <c r="B1">
-        <v>1.691859297567269</v>
+        <v>2.403627157211304</v>
       </c>
       <c r="C1">
-        <v>1.784899493060024</v>
+        <v>4.781197547912598</v>
       </c>
       <c r="D1">
-        <v>2.036541277858079</v>
+        <v>1.687149286270142</v>
       </c>
       <c r="E1">
-        <v>2.54048247950407</v>
+        <v>0.8499595522880554</v>
       </c>
     </row>
   </sheetData>
